--- a/munkaidő_elszámoló_dokumentáció.xlsx
+++ b/munkaidő_elszámoló_dokumentáció.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Elvégzett feladat leírása</t>
   </si>
@@ -76,7 +76,10 @@
     <t>Weboldal fejlécének vázlat szerű felépítése</t>
   </si>
   <si>
-    <t>2. alkalom</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2025.5.4</t>
   </si>
   <si>
     <t>3. alkalom</t>
@@ -90,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +103,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -139,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -162,20 +171,23 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,11 +210,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -527,17 +539,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="26" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="23" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="27" width="43.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -546,12 +558,12 @@
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -560,12 +572,12 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -574,85 +586,85 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="12"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="12"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -660,14 +672,14 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -677,67 +689,73 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>45775</v>
       </c>
-      <c r="C12" s="18">
-        <v>1.5208333333333335</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="19">
+        <v>2.520833333333333</v>
+      </c>
+      <c r="D12" s="13">
         <v>45775</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="19">
-      <c r="A13" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="19">
-      <c r="A14" s="16" t="s">
+      <c r="B13" s="21">
+        <v>45781</v>
+      </c>
+      <c r="C13" s="22">
+        <v>45658.708333333336</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="19">
-      <c r="A15" s="16" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="20">
+      <c r="A15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/munkaidő_elszámoló_dokumentáció.xlsx
+++ b/munkaidő_elszámoló_dokumentáció.xlsx
@@ -76,7 +76,7 @@
     <t>Weboldal fejlécének vázlat szerű felépítése</t>
   </si>
   <si>
-    <t>.</t>
+    <t>2.alkalom</t>
   </si>
   <si>
     <t>2025.5.4</t>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -171,24 +171,21 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,38 +195,29 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,14 +527,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="26" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="26" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="19" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="43.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -561,7 +549,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
+      <c r="H1" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
@@ -575,7 +563,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6" t="s">
@@ -589,82 +577,82 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="H3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -672,14 +660,14 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -690,16 +678,16 @@
       <c r="H11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="12">
         <v>45775</v>
       </c>
-      <c r="C12" s="19">
-        <v>2.520833333333333</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12" s="8">
+        <v>3.5208333333333335</v>
+      </c>
+      <c r="D12" s="12">
         <v>45775</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -711,51 +699,51 @@
       <c r="G12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="20">
-      <c r="A13" s="17" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="16">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="17">
         <v>45781</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>45658.708333333336</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="20">
-      <c r="A14" s="17" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="16">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="20">
-      <c r="A15" s="17" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="16">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
